--- a/P3_1 Stroke Comm Prev_Cog.xlsx
+++ b/P3_1 Stroke Comm Prev_Cog.xlsx
@@ -5,115 +5,106 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Oct 2020\For Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Stroke Paper R1 4 Mar\For Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34404" windowHeight="9480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cog Pr C" sheetId="2" r:id="rId1"/>
     <sheet name="Cog Pr C 1SD" sheetId="8" r:id="rId2"/>
     <sheet name="Cog Pr C Def2" sheetId="10" r:id="rId3"/>
     <sheet name="Cog Pr C TILDA" sheetId="12" r:id="rId4"/>
-    <sheet name="Source Info_ELSA" sheetId="3" r:id="rId5"/>
-    <sheet name="Source Info_TILDA" sheetId="5" r:id="rId6"/>
+    <sheet name="MetaData" sheetId="3" r:id="rId5"/>
+    <sheet name="Data Dictionary" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
-  <si>
-    <t>Institutional interviews excluded</t>
-  </si>
-  <si>
-    <t>CIND and Dementia criteria in ELSA</t>
-  </si>
-  <si>
-    <t>Dementia criteria:</t>
-  </si>
-  <si>
-    <r>
-      <t>Substantial</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+  <si>
+    <t>NCID_Pr_C</t>
+  </si>
+  <si>
+    <t>CINDnD_Pr_C</t>
+  </si>
+  <si>
+    <t>CINDD_Pr_C</t>
+  </si>
+  <si>
+    <t>Dementia_Pr_C</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>40-74</t>
+  </si>
+  <si>
+    <t>75-89</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>TILDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference information or contact name/institution </t>
+  </si>
+  <si>
+    <t>Population represented</t>
+  </si>
+  <si>
+    <t>Data collection method</t>
+  </si>
+  <si>
+    <t>Face to face survey (Computer Assisted Personal Interview)</t>
+  </si>
+  <si>
+    <t>Year(s) of data collection</t>
+  </si>
+  <si>
+    <t>Sex and age range</t>
+  </si>
+  <si>
+    <t>Men and Women aged 50-89</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>ELSA</t>
+  </si>
+  <si>
+    <t>Wave 5 collected 2010/2011</t>
+  </si>
+  <si>
+    <t>Banks J, Batty G, Coughlin K, Deepchand K, Marmot M, Nazroo J, Oldfield Z, Steel N, Steptoe A, Wood M, et al. English Longitudinal Study of Ageing: Waves 0-8, 1998-2017. [data collection]. 2019. Obtained via the UK Data Service https://ukdataservice.ac.uk/</t>
+  </si>
+  <si>
+    <t>Stroke defined as self-reported doctor diagnosis – “Has a doctor ever told you that you have had a stroke?” in current or previous wave. Any disputed diagnoses excluded.</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> impairments in one or more cognitive domains </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;2 SD below the mean for the same level of education, on one or more of the following tests: orientation in time; word-list recall (immediate, delayed); word-finding (verbal fluency); letter cancellation (processing speed/accuracy) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the participant is too impaired to take part in cognitive testing, then an IQCODE score &gt;= 3.6 is defined as indicative of dementia (2). </t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>Impairment in IADLs</t>
-  </si>
-  <si>
-    <t>defined as a difficulty with the following activities: managing money and taking medications</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Self-reported doctor diagnosis of dementia</t>
-  </si>
-  <si>
-    <t>CIND criteria</t>
-  </si>
-  <si>
-    <r>
-      <t>Modest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> impairment in one or more cognitive domains (with or without functional impairment)</t>
-    </r>
-  </si>
-  <si>
-    <t>IQCODE score 3.3-3.6 (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substantial impairment (defined as &gt;2SD below the mean for the same age group and level of education), but not meeting the IADL impairment criteria for dementia. </t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachdev P, Kalaria R, O’Brien J, Skoog I, Alladi S, Black SE, et al. Diagnostic criteria for vascular cognitive disorders: a VASCOG statement. Alzheimer Dis Assoc Disord. 2014;28(3):206–18. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Park MH. Informant questionnaire on cognitive decline in the elderly (IQCODE) for classifying cognitive dysfunction as cognitively normal, mild cognitive impairment, and dementia. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Int Psychogeriatrics</t>
+      <t>Dementia criteria:</t>
     </r>
     <r>
       <rPr>
@@ -123,137 +114,168 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. 2017;29(9):1461-1467. doi:10.1017/S1041610217000965.</t>
+      <t xml:space="preserve">
+Substantial impairments in one or more cognitive domains defined as: &gt;2 SD below the mean for the same level of education, on one or more of the following tests: orientation in time; word-list recall (immediate, delayed); word-finding (verbal fluency); or IQCODE score &gt;= 3.7 
+AND
+Impairment in IADLs defined as a difficulty with the following activities: managing money and taking medications
+OR
+Self-reported doctor diagnosis of dementia
+</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(impairment defined as a score 1.5*-2 SD below the mean for the same age group and level of education) </t>
-  </si>
-  <si>
-    <t>*1.5 cut-off chosen rather than 1, to be conservative, and also to ensure consistency with meta-analysis results (based on the post 12m data)</t>
-  </si>
-  <si>
-    <t>NCID_Pr_C</t>
-  </si>
-  <si>
-    <t>CINDnD_Pr_C</t>
-  </si>
-  <si>
-    <t>CINDD_Pr_C</t>
-  </si>
-  <si>
-    <t>Dementia_Pr_C</t>
-  </si>
-  <si>
-    <t>NCInD_N_C</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Age Group</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the participant is too impaired to take part in cognitive testing, then an IQCODE score &gt; =3.7 is defined as indicative of dementia (2). </t>
-  </si>
-  <si>
-    <t>&gt;2 SD below the mean for the same level of education, on one or more of the following tests: orientation in time; word-list recall (immediate, delayed); word-finding (verbal fluency)</t>
-  </si>
-  <si>
-    <t>CIND and Dementia criteria in TILDA</t>
-  </si>
-  <si>
-    <t>TILDA Wave 3 (Researcher Microfile)</t>
-  </si>
-  <si>
-    <t>40-74</t>
-  </si>
-  <si>
-    <t>75-89</t>
-  </si>
-  <si>
-    <t>Collected 2014/2015</t>
-  </si>
-  <si>
-    <t>ELSA wave 5</t>
-  </si>
-  <si>
-    <t>Collected 2010/2011</t>
-  </si>
-  <si>
-    <t>n=387</t>
-  </si>
-  <si>
-    <t>Age 50-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-reported doctor diagnosis of stroke in current or any previous wave. Any disputed diagnoses excluded. </t>
-  </si>
-  <si>
-    <t>n = 134</t>
-  </si>
-  <si>
-    <t>Obtained via the UK Data Service https://ukdataservice.ac.uk/</t>
-  </si>
-  <si>
-    <t>Accessed onsite via the hot desk facility - see https://tilda.tcd.ie/data/accessing-data/ for information on access</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CIND criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Modest impairment in one or more cognitive domains defined as: impairment defined as a score 1.5*-2 SD below the mean for the same age group and level of education on tests as outlined above, or IQCODE score 3.3-3.6
+OR
+Substantial impairment as outlined above, but not meeting the IADL impairment criteria for dementia. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dementia criteria:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Substantial impairments in one or more cognitive domains defined as: &gt;2 SD below the mean for the same level of education, on one or more of the following tests: orientation in time; word-list recall (immediate, delayed); word-finding (verbal fluency); letter cancellation (processing speed/accuracy), or IQCODE score &gt;= 3 (2). 
+AND
+Impairment in IADLs defined as a difficulty with the following activities: managing money and taking medications
+OR
+Self-reported doctor diagnosis of dementia
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CIND criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Modest impairment in one or more cognitive domains defined as: impairment defined as a score 1.5*-2 SD below the mean for the same age group and level of education on tests as outlined above, or IQCODE score 3.3-3.6
+OR
+Substantial impairment as outlined above, but not meeting the IADL impairment criteria for dementia. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>2014/15</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (stroke)</t>
+  </si>
+  <si>
+    <t>Diagnotic criteria (CIND and dementia)</t>
+  </si>
+  <si>
+    <t>Worksheets</t>
+  </si>
+  <si>
+    <t>Cog Pr C TILDA</t>
+  </si>
+  <si>
+    <t>Cog Pr C; Cog Pr C 1SD; Cog Pr C Def2</t>
+  </si>
+  <si>
+    <t>The Irish Longitudinal Study on Ageing (nd). Wave 3. Researcher Microfile v3.5.0. Accessed via hotdesk facility, October 2020. See https://tilda.tcd.ie/data/accessing-data/ for information on access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnostic criteria (disability) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability was defined as needing assistance in one or more of these basic activities: Walking across a room; Bathing or showering; Eating, such as cutting up your food; Getting in or out of bed; Using the toilet, including getting up or down. </t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>NCInD_Pr_C</t>
+  </si>
+  <si>
+    <t>Population with a history of stroke living in the community in the Republic of Ireland aged 50+ years</t>
+  </si>
+  <si>
+    <t>Population with a history of stroke living in the community in England aged 50+ (institutional interviews excluded)</t>
+  </si>
+  <si>
+    <t>Number of people with stroke living in the communty with no cognitive impairment and no disability</t>
+  </si>
+  <si>
+    <t>Number of people with stroke living in the communty with no cognitive impairment and disability</t>
+  </si>
+  <si>
+    <t>Number of people with stroke living in the communty with cognitive impairment no dementia (CIND) and no disability</t>
+  </si>
+  <si>
+    <t>Number of people with stroke living in the communty with cognitive impairment no dementia (CIND) and disability</t>
+  </si>
+  <si>
+    <t>Number of people with stroke living in the communty with dementia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -270,6 +292,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,29 +327,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +651,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,30 +666,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -683,7 +712,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -706,7 +735,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +749,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,30 +764,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -781,7 +810,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -813,7 +842,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,30 +857,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -874,7 +903,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -906,7 +935,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,30 +950,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -967,7 +996,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -996,206 +1025,138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B52"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.21875" customWidth="1"/>
+    <col min="3" max="3" width="77.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>19</v>
+      <c r="B11">
+        <v>134</v>
+      </c>
+      <c r="C11">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -1206,179 +1167,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A42"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="98.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>14</v>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>